--- a/biology/Zoologie/Dreissena/Dreissena.xlsx
+++ b/biology/Zoologie/Dreissena/Dreissena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dreissena est un genre de mollusques bivalves de la famille des Dreissenidae. Il contient plusieurs espèces, dont l'espèce invasive en Europe et en Amérique du Nord Dreissena polymorpha, la Moule zébrée.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (2 juillet 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (2 juillet 2018) :
 Dreissena bugensis Andrusov, 1897 ;
 Dreissena polymorpha (Pallas, 1771), la Moule zébrée.
 Autres espèces :
